--- a/StaticData/__TestStaticData/Data02.xlsx
+++ b/StaticData/__TestStaticData/Data02.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\MultiExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832FB848-B998-41FB-BC5E-55E909BA6F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E9A9C-4128-4519-863E-4E7ED37F4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="11910" windowWidth="28800" windowHeight="15900" activeTab="1" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="5265" yWindow="17250" windowWidth="24885" windowHeight="13125" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="이름 매핑 테스트" sheetId="7" r:id="rId1"/>
     <sheet name="ArrayTest" sheetId="8" r:id="rId2"/>
+    <sheet name="GroupedItemTest" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +82,26 @@
   </si>
   <si>
     <t>가장, 적은 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E367DE24-667E-4580-B063-F4ABC87A87AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -688,4 +709,91 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49539C59-21C0-466C-AE58-A5409FF63FE4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1001001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1001002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1001003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1002001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1002002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StaticData/__TestStaticData/Data02.xlsx
+++ b/StaticData/__TestStaticData/Data02.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\Playground\StaticData\__TestStaticData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E9A9C-4128-4519-863E-4E7ED37F4978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8359A41E-A9EC-4532-B324-87E9676BE5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="17250" windowWidth="24885" windowHeight="13125" activeTab="2" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
+    <workbookView xWindow="13065" yWindow="13485" windowWidth="24885" windowHeight="13125" activeTab="3" xr2:uid="{8EF6EFD5-36D8-4DAA-83AD-49C34620FFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="이름 매핑 테스트" sheetId="7" r:id="rId1"/>
     <sheet name="ArrayTest" sheetId="8" r:id="rId2"/>
     <sheet name="GroupedItemTest" sheetId="9" r:id="rId3"/>
+    <sheet name="ForeignTest" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +103,42 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetTestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StudentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 있을수도 있고,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생이 없을수도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49539C59-21C0-466C-AE58-A5409FF63FE4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -796,4 +833,87 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BF3242-ABB9-4B3C-B993-85E2531B3CB4}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1001</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>20220001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>1002</v>
+      </c>
+      <c r="D11">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>1003</v>
+      </c>
+      <c r="D12">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>20220002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>